--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value574.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value574.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.871284093065565</v>
+        <v>1.144369602203369</v>
       </c>
       <c r="B1">
-        <v>2.647271676781815</v>
+        <v>2.240702390670776</v>
       </c>
       <c r="C1">
-        <v>2.749382167555515</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.010386111731173</v>
+        <v>2.169145822525024</v>
       </c>
       <c r="E1">
-        <v>0.8256949229692642</v>
+        <v>1.071166634559631</v>
       </c>
     </row>
   </sheetData>
